--- a/TestData/ReportMgtData.xlsx
+++ b/TestData/ReportMgtData.xlsx
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Section</t>
   </si>
   <si>
     <t>ProductionOrderNo</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>ItemCode</t>
@@ -50,34 +47,24 @@
     <t>B</t>
   </si>
   <si>
-    <t>PO-1001</t>
+    <t>QUALITY INSPECTION - 0125</t>
   </si>
   <si>
-    <t>Cutting</t>
+    <t>Select All</t>
   </si>
   <si>
-    <t>Dimension Check</t>
-  </si>
-  <si>
-    <t>PO-1002</t>
-  </si>
-  <si>
-    <t>Drilling</t>
-  </si>
-  <si>
-    <t>Visual Check</t>
+    <t>QUALITY INSPECTION - 0035</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -695,15 +682,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,23 +1073,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="14.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="14.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:6">
+    <row r="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,48 +1104,39 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5510766030</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5512886030</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45962</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5514634032</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="31" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45963</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5514634032</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
